--- a/sqlitemodel/sqlitemodel/sqlitemodel.xlsx
+++ b/sqlitemodel/sqlitemodel/sqlitemodel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="3960" windowWidth="12090" windowHeight="6615"/>
+    <workbookView xWindow="420" yWindow="3960" windowWidth="15180" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="表设计" sheetId="1" r:id="rId1"/>
@@ -76,22 +76,39 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="12291BDA114693147B8181BE1BF8193A73D3E1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1AFB2B17B1E98C1439E1B6C81B311B185DD461"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="15769"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="17092"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1005"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="68A66984E6186464FC76ACEA608C25FA666AF6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5186"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -108,7 +125,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -125,7 +142,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -142,7 +159,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -159,7 +176,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -176,7 +193,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -193,7 +210,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -210,7 +227,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -227,7 +244,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -244,7 +261,24 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="12291BDA114693147B8181BE1BF8193A73D3E1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="15769"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -261,7 +295,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -278,7 +312,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -295,7 +329,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -312,7 +346,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -329,7 +363,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -346,7 +380,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -363,7 +397,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -375,23 +409,6 @@
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="5239"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="68A66984E6186464FC76ACEA608C25FA666AF6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5186"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -445,13 +462,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>514351</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>590551</xdr:colOff>
+          <xdr:colOff>590550</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -691,13 +708,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>114299</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>9526</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -781,7 +798,7 @@
           <xdr:col>15</xdr:col>
           <xdr:colOff>466725</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>66674</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -896,13 +913,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>428624</xdr:colOff>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>19</xdr:col>
-          <xdr:colOff>285749</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
@@ -937,13 +954,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>514349</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>24</xdr:col>
-          <xdr:colOff>19051</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -953,6 +970,47 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>152401</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>485776</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="_ActiveXWrapper15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1476,8 +1534,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1498,8 +1556,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId4" name="_ActiveXWrapper14">
+        <control shapeId="1041" r:id="rId4" name="_ActiveXWrapper15">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId4" name="_ActiveXWrapper15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId6" name="_ActiveXWrapper14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>15</xdr:col>
@@ -1518,13 +1601,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId4" name="_ActiveXWrapper14"/>
+        <control shapeId="1040" r:id="rId6" name="_ActiveXWrapper14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId6" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="1039" r:id="rId8" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>17</xdr:col>
@@ -1543,13 +1626,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId6" name="_ActiveXWrapper13"/>
+        <control shapeId="1039" r:id="rId8" name="_ActiveXWrapper13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId8" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="1038" r:id="rId10" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>15</xdr:col>
@@ -1568,13 +1651,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId8" name="_ActiveXWrapper12"/>
+        <control shapeId="1038" r:id="rId10" name="_ActiveXWrapper12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId10" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="1037" r:id="rId12" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>15</xdr:col>
@@ -1593,13 +1676,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId10" name="_ActiveXWrapper11"/>
+        <control shapeId="1037" r:id="rId12" name="_ActiveXWrapper11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId12" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
@@ -1618,13 +1701,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId12" name="_ActiveXWrapper10"/>
+        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId14" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
@@ -1643,13 +1726,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId14" name="_ActiveXWrapper9"/>
+        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId16" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="1032" r:id="rId18" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -1668,13 +1751,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId16" name="_ActiveXWrapper7"/>
+        <control shapeId="1032" r:id="rId18" name="_ActiveXWrapper7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId18" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+        <control shapeId="1031" r:id="rId20" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1693,13 +1776,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId18" name="_ActiveXWrapper6"/>
+        <control shapeId="1031" r:id="rId20" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId20" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+        <control shapeId="1030" r:id="rId22" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1718,13 +1801,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId20" name="_ActiveXWrapper5"/>
+        <control shapeId="1030" r:id="rId22" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId22" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
+        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -1743,13 +1826,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId22" name="_ActiveXWrapper4"/>
+        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId24" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
+        <control shapeId="1028" r:id="rId26" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -1768,13 +1851,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId24" name="_ActiveXWrapper3"/>
+        <control shapeId="1028" r:id="rId26" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId26" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
+        <control shapeId="1026" r:id="rId28" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -1793,13 +1876,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId26" name="_ActiveXWrapper2"/>
+        <control shapeId="1026" r:id="rId28" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId28" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
+        <control shapeId="1025" r:id="rId30" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -1818,13 +1901,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId28" name="_ActiveXWrapper1"/>
+        <control shapeId="1025" r:id="rId30" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId30" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
+        <control shapeId="1034" r:id="rId32" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId33">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -1843,7 +1926,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId30" name="_ActiveXWrapper8"/>
+        <control shapeId="1034" r:id="rId32" name="_ActiveXWrapper8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/sqlitemodel/sqlitemodel/sqlitemodel.xlsx
+++ b/sqlitemodel/sqlitemodel/sqlitemodel.xlsx
@@ -76,39 +76,22 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1AFB2B17B1E98C1439E1B6C81B311B185DD461"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23625AFFA2628524BD1294142C1CE98943D5C2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="17092"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1005"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="68A66984E6186464FC76ACEA608C25FA666AF6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5186"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -125,7 +108,398 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7E4F9637C75A92742D17B08C75D481466AC7D7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5239"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="865306363851B484EC38B5198B66A220843138"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2805"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F3989DE313A6514DA8182AF1BB477EC1D5F51"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1A13AFC3717F2E140861A5DF16E927EDA7AB71"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="6747"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14102"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="10A250F171E9881433D1A8CB16FA083D92D1F1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F44A06421273614C081A4B112069DF4C576D1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3043"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BA78A1B91AA2F147F21A2CD17602A966B30E1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3413"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="953"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="12291BDA114693147B8181BE1BF8193A73D3E1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="15769"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1AFB2B17B1E98C1439E1B6C81B311B185DD461"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="17092"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1005"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24FD265452D60024F9A280F02550102B3AD382"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1852"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2C226BA75293532414E294EF2E8FFD852516E2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="58FAA37445CFBD545F55BEA45AACBC1A50ECF5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4551"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1270"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="410274FE6432E84491B49F7C45173A5C69D1B4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1138"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3476C46BF3B304340293BF9632168E88947C73"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="23627"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14975"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="25D353ED0275E2249FA2BCD32763C5A5D4CC62"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="8255"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1C54A06D51378F14F9919B86157E269FEABDD1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3651"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="665AC892960B7F64D566985B60FF984365BB96"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="20218A97D22EDF24EBA2BD402C17A21D46EF02"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3360"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="133ADD7A7152C514B08193DF1F9EA7A4EB19D1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1693"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="16E251DBE1D2A0140141BC0D1C183BDB3A4021"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="109F2244F18E7B1414319747194E7A4F5F6F91"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="25400"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="12E5D2753176D214A981ADFF19EEDB3A7D3C31"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2170"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="873"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="203B1A154240DA2435F292A420170CCA3E3062"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2884"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -142,294 +516,22 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="203B1A154240DA2435F292A420170CCA3E3062"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4022"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1191"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="12E5D2753176D214A981ADFF19EEDB3A7D3C31"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3704"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1270"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="109F2244F18E7B1414319747194E7A4F5F6F91"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="25400"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1C54A06D51378F14F9919B86157E269FEABDD1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3651"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="25D353ED0275E2249FA2BCD32763C5A5D4CC62"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="8255"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3476C46BF3B304340293BF9632168E88947C73"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="23627"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14975"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="410274FE6432E84491B49F7C45173A5C69D1B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1138"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="12291BDA114693147B8181BE1BF8193A73D3E1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="15769"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="58FAA37445CFBD545F55BEA45AACBC1A50ECF5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4551"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1270"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BA78A1B91AA2F147F21A2CD17602A966B30E1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3413"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="953"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F44A06421273614C081A4B112069DF4C576D1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3043"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="10A250F171E9881433D1A8CB16FA083D92D1F1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1A13AFC3717F2E140861A5DF16E927EDA7AB71"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="6747"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14102"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F3989DE313A6514DA8182AF1BB477EC1D5F51"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="865306363851B484EC38B5198B66A220843138"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2619"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7E4F9637C75A92742D17B08C75D481466AC7D7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5239"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -461,16 +563,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -585,47 +687,6 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="_ActiveXWrapper5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1030"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
@@ -673,7 +734,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -995,13 +1056,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>152401</xdr:colOff>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>485776</xdr:colOff>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
@@ -1011,6 +1072,252 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="_ActiveXWrapper32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="_ActiveXWrapper16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>152401</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="_ActiveXWrapper17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>371475</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="_ActiveXWrapper18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="_ActiveXWrapper19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>657225</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="_ActiveXWrapper20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1163,16 +1470,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>371475</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1221,6 +1528,47 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>514350</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2054" name="_ActiveXWrapper6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2054"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1535,7 +1883,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1556,8 +1904,458 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId4" name="_ActiveXWrapper15">
+        <control shapeId="1047" r:id="rId4" name="_ActiveXWrapper20">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId4" name="_ActiveXWrapper20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId6" name="_ActiveXWrapper19">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId6" name="_ActiveXWrapper19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId8" name="_ActiveXWrapper17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId8" name="_ActiveXWrapper17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId10" name="_ActiveXWrapper16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId10" name="_ActiveXWrapper16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId12" name="_ActiveXWrapper32">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId12" name="_ActiveXWrapper32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId16" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId16" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId18" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId18" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId20" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId20" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId22" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId22" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId24" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId24" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId26" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId26" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId28" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId28" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId30" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>466725</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId30" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId32" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId33">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId32" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId34" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId35">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId34" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId36" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId37">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId36" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId38" name="_ActiveXWrapper14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId39">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId38" name="_ActiveXWrapper14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId40" name="_ActiveXWrapper15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId41">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -1576,174 +2374,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId4" name="_ActiveXWrapper15"/>
+        <control shapeId="1041" r:id="rId40" name="_ActiveXWrapper15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId6" name="_ActiveXWrapper14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="1045" r:id="rId42" name="_ActiveXWrapper18">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId43">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>24</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId6" name="_ActiveXWrapper14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId8" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId8" name="_ActiveXWrapper13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId10" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId10" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId12" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId12" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>333375</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId16" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId18" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
@@ -1751,182 +2399,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId18" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId20" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId20" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId22" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId22" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId26" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId26" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId28" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId28" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId30" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId30" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId32" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId33">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId32" name="_ActiveXWrapper8"/>
+        <control shapeId="1045" r:id="rId42" name="_ActiveXWrapper18"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1938,8 +2411,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1953,52 +2426,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="2053" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="2053" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="2052" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="2052" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2028,18 +2501,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="2050" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId10" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId12" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>142875</xdr:rowOff>
               </to>
@@ -2048,32 +2546,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="2049" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId12" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="2054" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="2054" r:id="rId14" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/sqlitemodel/sqlitemodel/sqlitemodel.xlsx
+++ b/sqlitemodel/sqlitemodel/sqlitemodel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="3960" windowWidth="15180" windowHeight="9255"/>
+    <workbookView xWindow="420" yWindow="4020" windowWidth="15180" windowHeight="9255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表设计" sheetId="1" r:id="rId1"/>
@@ -76,22 +76,39 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23625AFFA2628524BD1294142C1CE98943D5C2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3A79EA9BF37C5934E0739C393D6E9BA2CF65E3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4128"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1402"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4CCE9C1324120B44BEA4869A4785E6DAB385B4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1931"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -108,7 +125,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -125,7 +142,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -142,7 +159,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -159,7 +176,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -176,7 +193,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -193,7 +210,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -210,7 +227,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -227,7 +244,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -238,13 +255,30 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="15769"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="18494"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23625AFFA2628524BD1294142C1CE98943D5C2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -261,7 +295,160 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2C226BA75293532414E294EF2E8FFD852516E2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2D9D1C989225B1249A82A0F72C85756886E7F2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1561"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="274C5BEFC2F81C24D2E2A90921A55823E21552"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="58FAA37445CFBD545F55BEA45AACBC1A50ECF5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4551"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1270"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="410274FE6432E84491B49F7C45173A5C69D1B4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1138"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3476C46BF3B304340293BF9632168E88947C73"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="22463"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14975"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="25D353ED0275E2249FA2BCD32763C5A5D4CC62"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="8255"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1C54A06D51378F14F9919B86157E269FEABDD1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3651"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="665AC892960B7F64D566985B60FF984365BB96"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -278,126 +465,24 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2C226BA75293532414E294EF2E8FFD852516E2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1AC5D7FB21FF9614E26191C91E9009A2710081"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1296"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="58FAA37445CFBD545F55BEA45AACBC1A50ECF5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4551"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1270"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="410274FE6432E84491B49F7C45173A5C69D1B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1138"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3476C46BF3B304340293BF9632168E88947C73"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="23627"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14975"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="25D353ED0275E2249FA2BCD32763C5A5D4CC62"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="8255"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1C54A06D51378F14F9919B86157E269FEABDD1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3651"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="665AC892960B7F64D566985B60FF984365BB96"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -414,7 +499,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -431,7 +516,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -448,7 +533,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -459,13 +544,13 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="25400"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="27623"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -482,7 +567,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -495,23 +580,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="2884"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4CCE9C1324120B44BEA4869A4785E6DAB385B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1931"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -774,8 +842,8 @@
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -809,14 +877,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>333375</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
@@ -850,16 +918,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -891,16 +959,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>428625</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -932,16 +1000,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>266700</xdr:colOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -973,16 +1041,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>428625</xdr:colOff>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1014,16 +1082,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>24</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>26</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1179,7 +1247,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>152401</xdr:colOff>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
@@ -1220,15 +1288,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
+          <xdr:colOff>419100</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1338,6 +1406,129 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>447675</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="_ActiveXWrapper21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>9526</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>9526</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="_ActiveXWrapper22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>38101</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>723901</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="_ActiveXWrapper23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1435,8 +1626,8 @@
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>361950</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>628650</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -1569,6 +1760,52 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2054"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="_ActiveXWrapper1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1882,8 +2119,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1904,8 +2141,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId4" name="_ActiveXWrapper20">
+        <control shapeId="1054" r:id="rId4" name="_ActiveXWrapper23">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId4" name="_ActiveXWrapper23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId6" name="_ActiveXWrapper20">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -1924,13 +2186,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId4" name="_ActiveXWrapper20"/>
+        <control shapeId="1047" r:id="rId6" name="_ActiveXWrapper20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId6" name="_ActiveXWrapper19">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="1046" r:id="rId8" name="_ActiveXWrapper19">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -1949,13 +2211,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId6" name="_ActiveXWrapper19"/>
+        <control shapeId="1046" r:id="rId8" name="_ActiveXWrapper19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId8" name="_ActiveXWrapper17">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="1044" r:id="rId10" name="_ActiveXWrapper17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -1974,13 +2236,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId8" name="_ActiveXWrapper17"/>
+        <control shapeId="1044" r:id="rId10" name="_ActiveXWrapper17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId10" name="_ActiveXWrapper16">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="1043" r:id="rId12" name="_ActiveXWrapper16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -1999,13 +2261,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId10" name="_ActiveXWrapper16"/>
+        <control shapeId="1043" r:id="rId12" name="_ActiveXWrapper16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId12" name="_ActiveXWrapper32">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="1042" r:id="rId14" name="_ActiveXWrapper32">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2024,13 +2286,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId12" name="_ActiveXWrapper32"/>
+        <control shapeId="1042" r:id="rId14" name="_ActiveXWrapper32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="1034" r:id="rId16" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -2039,8 +2301,8 @@
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>36</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -2049,13 +2311,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8"/>
+        <control shapeId="1034" r:id="rId16" name="_ActiveXWrapper8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId16" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="1025" r:id="rId18" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
@@ -2074,13 +2336,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId16" name="_ActiveXWrapper1"/>
+        <control shapeId="1025" r:id="rId18" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId18" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+        <control shapeId="1026" r:id="rId20" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -2099,13 +2361,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId18" name="_ActiveXWrapper2"/>
+        <control shapeId="1026" r:id="rId20" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId20" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+        <control shapeId="1028" r:id="rId22" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -2124,13 +2386,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId20" name="_ActiveXWrapper3"/>
+        <control shapeId="1028" r:id="rId22" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId22" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
+        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -2149,13 +2411,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId22" name="_ActiveXWrapper4"/>
+        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId24" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
+        <control shapeId="1031" r:id="rId26" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2174,13 +2436,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId24" name="_ActiveXWrapper6"/>
+        <control shapeId="1031" r:id="rId26" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId26" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
+        <control shapeId="1032" r:id="rId28" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -2199,23 +2461,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId26" name="_ActiveXWrapper7"/>
+        <control shapeId="1032" r:id="rId28" name="_ActiveXWrapper7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId28" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
+        <control shapeId="1035" r:id="rId30" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>333375</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
@@ -2224,138 +2486,138 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId28" name="_ActiveXWrapper9"/>
+        <control shapeId="1035" r:id="rId30" name="_ActiveXWrapper9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId30" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
+        <control shapeId="1036" r:id="rId32" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId33">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
                 <xdr:row>36</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId30" name="_ActiveXWrapper10"/>
+        <control shapeId="1036" r:id="rId32" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId32" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId33">
+        <control shapeId="1037" r:id="rId34" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId35">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId32" name="_ActiveXWrapper11"/>
+        <control shapeId="1037" r:id="rId34" name="_ActiveXWrapper11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId34" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId35">
+        <control shapeId="1038" r:id="rId36" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId37">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId34" name="_ActiveXWrapper12"/>
+        <control shapeId="1038" r:id="rId36" name="_ActiveXWrapper12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId36" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId37">
+        <control shapeId="1039" r:id="rId38" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId39">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId36" name="_ActiveXWrapper13"/>
+        <control shapeId="1039" r:id="rId38" name="_ActiveXWrapper13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId38" name="_ActiveXWrapper14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId39">
+        <control shapeId="1040" r:id="rId40" name="_ActiveXWrapper14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId41">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>24</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>26</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
                 <xdr:row>36</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId38" name="_ActiveXWrapper14"/>
+        <control shapeId="1040" r:id="rId40" name="_ActiveXWrapper14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId40" name="_ActiveXWrapper15">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId41">
+        <control shapeId="1041" r:id="rId42" name="_ActiveXWrapper15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId43">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -2374,32 +2636,82 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId40" name="_ActiveXWrapper15"/>
+        <control shapeId="1041" r:id="rId42" name="_ActiveXWrapper15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId42" name="_ActiveXWrapper18">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId43">
+        <control shapeId="1045" r:id="rId44" name="_ActiveXWrapper18">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId45">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
+                <xdr:colOff>419100</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId42" name="_ActiveXWrapper18"/>
+        <control shapeId="1045" r:id="rId44" name="_ActiveXWrapper18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId46" name="_ActiveXWrapper21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId47">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId46" name="_ActiveXWrapper21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId48" name="_ActiveXWrapper22">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId49">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId48" name="_ActiveXWrapper22"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2411,8 +2723,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2486,8 +2798,8 @@
                 <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
                 <xdr:row>38</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
@@ -2579,11 +2891,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -2591,5 +2905,34 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
--- a/sqlitemodel/sqlitemodel/sqlitemodel.xlsx
+++ b/sqlitemodel/sqlitemodel/sqlitemodel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="4020" windowWidth="15180" windowHeight="9255" activeTab="2"/>
+    <workbookView xWindow="-450" yWindow="3150" windowWidth="18360" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="表设计" sheetId="1" r:id="rId1"/>
@@ -79,19 +79,291 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3A79EA9BF37C5934E0739C393D6E9BA2CF65E3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4128"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1402"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="48F1B7E4D44859445AE4B0544474117990B964"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2858"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3115F63EB30C51347463847B35CFFBE28EF763"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3318E66D2387FF34F333A22D3C94A688FEC693"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="35D3B845434FBE3434F3846130EB347A64B2E3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="323607CF7350DE340A8388243C57AAF0EAC1F3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2C226BA75293532414E294EF2E8FFD852516E2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1AFB2B17B1E98C1439E1B6C81B311B185DD461"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="17092"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1005"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="12291BDA114693147B8181BE1BF8193A73D3E1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="18494"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BA78A1B91AA2F147F21A2CD17602A966B30E1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3413"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="953"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F44A06421273614C081A4B112069DF4C576D1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3043"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="10A250F171E9881433D1A8CB16FA083D92D1F1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4C67F8248414ED4403B4A0574FF5CBD5D33894"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2487"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1A13AFC3717F2E140861A5DF16E927EDA7AB71"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="6747"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14102"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F3989DE313A6514DA8182AF1BB477EC1D5F51"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="865306363851B484EC38B5198B66A220843138"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2805"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7E4F9637C75A92742D17B08C75D481466AC7D7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5239"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="55693D3E350B8B541DD5AE1D584BD69ED07275"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -108,160 +380,143 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="203B1A154240DA2435F292A420170CCA3E3062"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1905"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="12E5D2753176D214A981ADFF19EEDB3A7D3C31"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2170"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="873"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="109F2244F18E7B1414319747194E7A4F5F6F91"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="27623"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="16E251DBE1D2A0140141BC0D1C183BDB3A4021"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="44DA5B41A42BE54477449E9040850944343DA4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="55693D3E350B8B541DD5AE1D584BD69ED07275"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+  <ax:ocxPr ax:name="Cookie" ax:value="133ADD7A7152C514B08193DF1F9EA7A4EB19D1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1693"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7E4F9637C75A92742D17B08C75D481466AC7D7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5239"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="865306363851B484EC38B5198B66A220843138"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2805"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+  <ax:ocxPr ax:name="Cookie" ax:value="20218A97D22EDF24EBA2BD402C17A21D46EF02"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3360"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F3989DE313A6514DA8182AF1BB477EC1D5F51"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1A13AFC3717F2E140861A5DF16E927EDA7AB71"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="6747"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14102"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="10A250F171E9881433D1A8CB16FA083D92D1F1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F44A06421273614C081A4B112069DF4C576D1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3043"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BA78A1B91AA2F147F21A2CD17602A966B30E1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3413"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="953"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="12291BDA114693147B8181BE1BF8193A73D3E1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="18494"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+  <ax:ocxPr ax:name="Cookie" ax:value="24FD265452D60024F9A280F02550102B3AD382"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1852"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -278,75 +533,92 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1AFB2B17B1E98C1439E1B6C81B311B185DD461"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="17092"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1005"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+  <ax:ocxPr ax:name="Cookie" ax:value="665AC892960B7F64D566985B60FF984365BB96"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1C54A06D51378F14F9919B86157E269FEABDD1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3651"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="25D353ED0275E2249FA2BCD32763C5A5D4CC62"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="8255"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3476C46BF3B304340293BF9632168E88947C73"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="22463"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14975"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2C226BA75293532414E294EF2E8FFD852516E2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2D9D1C989225B1249A82A0F72C85756886E7F2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="410274FE6432E84491B49F7C45173A5C69D1B4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1561"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="274C5BEFC2F81C24D2E2A90921A55823E21552"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1138"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -363,109 +635,24 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="410274FE6432E84491B49F7C45173A5C69D1B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1138"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3476C46BF3B304340293BF9632168E88947C73"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="22463"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14975"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="25D353ED0275E2249FA2BCD32763C5A5D4CC62"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="8255"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1C54A06D51378F14F9919B86157E269FEABDD1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3651"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="665AC892960B7F64D566985B60FF984365BB96"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24FD265452D60024F9A280F02550102B3AD382"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1852"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A898DCB94658D4453748A584FFE944C456B14"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="900"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -482,104 +669,87 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3A76453313A8703422A3816336AA84B7B3FDE3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1349"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3CD83B4A7328303423A39AFE36684931983D63"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1508"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32E44DD8A3151034DF738B1E375C505F44B323"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="20218A97D22EDF24EBA2BD402C17A21D46EF02"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3360"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3648C574D3F34934C3A394EF3DB95740107D83"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="133ADD7A7152C514B08193DF1F9EA7A4EB19D1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1693"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="16E251DBE1D2A0140141BC0D1C183BDB3A4021"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="109F2244F18E7B1414319747194E7A4F5F6F91"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="27623"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="12E5D2753176D214A981ADFF19EEDB3A7D3C31"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2170"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="873"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="203B1A154240DA2435F292A420170CCA3E3062"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2884"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3F83E0BD3350E834E843B8813B985FC503EB53"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -591,56 +761,56 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="_ActiveXWrapper1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>657226</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="_ActiveXWrapper1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
+          <xdr:colOff>542926</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1206,186 +1376,309 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>533400</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1043" name="_ActiveXWrapper16" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1043"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1044" name="_ActiveXWrapper17" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1044"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1045" name="_ActiveXWrapper18" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1045"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>4</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="_ActiveXWrapper16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="_ActiveXWrapper17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1046" name="_ActiveXWrapper19" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1046"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="_ActiveXWrapper18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="_ActiveXWrapper19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="_ActiveXWrapper20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="_ActiveXWrapper51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>352425</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="_ActiveXWrapper22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>619125</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1047" name="_ActiveXWrapper20" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1047"/>
+            <xdr:cNvPr id="1057" name="_ActiveXWrapper23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1412,103 +1705,390 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>657225</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="_ActiveXWrapper24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>352425</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1059" name="_ActiveXWrapper25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1048" name="_ActiveXWrapper21" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1048"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>9526</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>9526</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1053" name="_ActiveXWrapper22" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1053"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>38101</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>723901</xdr:colOff>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1054" name="_ActiveXWrapper23" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1054"/>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1060" name="_ActiveXWrapper26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>695326</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>257176</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="_ActiveXWrapper27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>619125</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>57149</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="_ActiveXWrapper28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>742949</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>428624</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1063" name="_ActiveXWrapper29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>752475</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>66674</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>409574</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1064" name="_ActiveXWrapper30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1064"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="_ActiveXWrapper31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="_ActiveXWrapper73" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="_ActiveXWrapper33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2119,8 +2699,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2141,43 +2721,668 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId4" name="_ActiveXWrapper23">
+        <control shapeId="1067" r:id="rId4" name="_ActiveXWrapper33">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1067" r:id="rId4" name="_ActiveXWrapper33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1066" r:id="rId6" name="_ActiveXWrapper73">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1066" r:id="rId6" name="_ActiveXWrapper73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1065" r:id="rId8" name="_ActiveXWrapper31">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1065" r:id="rId8" name="_ActiveXWrapper31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1064" r:id="rId10" name="_ActiveXWrapper30">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1064" r:id="rId10" name="_ActiveXWrapper30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1063" r:id="rId12" name="_ActiveXWrapper29">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>742950</xdr:colOff>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1063" r:id="rId12" name="_ActiveXWrapper29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId14" name="_ActiveXWrapper28">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1062" r:id="rId14" name="_ActiveXWrapper28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1061" r:id="rId16" name="_ActiveXWrapper27">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1061" r:id="rId16" name="_ActiveXWrapper27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1060" r:id="rId18" name="_ActiveXWrapper26">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>40</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1054" r:id="rId4" name="_ActiveXWrapper23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId6" name="_ActiveXWrapper20">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1060" r:id="rId18" name="_ActiveXWrapper26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId20" name="_ActiveXWrapper25">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1059" r:id="rId20" name="_ActiveXWrapper25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId21" name="_ActiveXWrapper24">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId21" name="_ActiveXWrapper24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId23" name="_ActiveXWrapper23">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId24">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId23" name="_ActiveXWrapper23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId25" name="_ActiveXWrapper22">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId26">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId25" name="_ActiveXWrapper22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId27" name="_ActiveXWrapper51">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId28">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId27" name="_ActiveXWrapper51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId29" name="_ActiveXWrapper18">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId30">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId29" name="_ActiveXWrapper18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId32">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId33" name="_ActiveXWrapper14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId34">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>26</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId33" name="_ActiveXWrapper14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId35" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId36">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId35" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId37" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId38">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId37" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId39" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId40">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId39" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId41" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId42">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId41" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId43" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId44">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId43" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId45" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId46">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId45" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId47" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId48">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId47" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId49" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId50">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId49" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId51" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId52">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId51" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId53" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId54">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId53" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId55" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId56">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2186,24 +3391,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId6" name="_ActiveXWrapper20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId8" name="_ActiveXWrapper19">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
+        <control shapeId="1025" r:id="rId55" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId57" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId58">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>6</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
@@ -2211,63 +3416,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId8" name="_ActiveXWrapper19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId10" name="_ActiveXWrapper17">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId10" name="_ActiveXWrapper17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId12" name="_ActiveXWrapper16">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId12" name="_ActiveXWrapper16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId14" name="_ActiveXWrapper32">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="1034" r:id="rId57" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId59" name="_ActiveXWrapper32">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId60">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2286,24 +3441,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId14" name="_ActiveXWrapper32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId16" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
+        <control shapeId="1042" r:id="rId59" name="_ActiveXWrapper32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId61" name="_ActiveXWrapper16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId62">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
@@ -2311,98 +3466,48 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId16" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId18" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>3</xdr:row>
+        <control shapeId="1043" r:id="rId61" name="_ActiveXWrapper16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId63" name="_ActiveXWrapper17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId64">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId63" name="_ActiveXWrapper17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId65" name="_ActiveXWrapper19">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId66">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId18" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId20" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId20" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId22" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId22" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </to>
@@ -2411,307 +3516,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId26" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
+        <control shapeId="1046" r:id="rId65" name="_ActiveXWrapper19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId67" name="_ActiveXWrapper20">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId68">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId26" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId28" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId28" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId30" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId30" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId32" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId33">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId32" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId34" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId35">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId34" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId36" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId37">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId36" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId38" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId39">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId38" name="_ActiveXWrapper13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId40" name="_ActiveXWrapper14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId41">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>26</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId40" name="_ActiveXWrapper14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId42" name="_ActiveXWrapper15">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId43">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId42" name="_ActiveXWrapper15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId44" name="_ActiveXWrapper18">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId45">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId44" name="_ActiveXWrapper18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId46" name="_ActiveXWrapper21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId47">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId46" name="_ActiveXWrapper21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId48" name="_ActiveXWrapper22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId49">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1053" r:id="rId48" name="_ActiveXWrapper22"/>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId67" name="_ActiveXWrapper20"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2738,8 +3568,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="2054" r:id="rId4" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId6" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId10" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId10" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId12" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId12" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId14" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -2758,132 +3713,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId4" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId6" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId10" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId12" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId12" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId14" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId14" name="_ActiveXWrapper6"/>
+        <control shapeId="2053" r:id="rId14" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2895,7 +3725,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/sqlitemodel/sqlitemodel/sqlitemodel.xlsx
+++ b/sqlitemodel/sqlitemodel/sqlitemodel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-450" yWindow="3150" windowWidth="18360" windowHeight="9255"/>
+    <workbookView xWindow="420" yWindow="4020" windowWidth="18300" windowHeight="9255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表设计" sheetId="1" r:id="rId1"/>
@@ -76,6 +76,448 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23625AFFA2628524BD1294142C1CE98943D5C2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="55693D3E350B8B541DD5AE1D584BD69ED07275"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7E4F9637C75A92742D17B08C75D481466AC7D7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5239"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="865306363851B484EC38B5198B66A220843138"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2805"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F3989DE313A6514DA8182AF1BB477EC1D5F51"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1A13AFC3717F2E140861A5DF16E927EDA7AB71"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="6747"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14102"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="10A250F171E9881433D1A8CB16FA083D92D1F1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F44A06421273614C081A4B112069DF4C576D1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3043"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BA78A1B91AA2F147F21A2CD17602A966B30E1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3413"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="953"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="12291BDA114693147B8181BE1BF8193A73D3E1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="18494"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1AFB2B17B1E98C1439E1B6C81B311B185DD461"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="17092"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1005"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24FD265452D60024F9A280F02550102B3AD382"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1852"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2C226BA75293532414E294EF2E8FFD852516E2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="323607CF7350DE340A8388243C57AAF0EAC1F3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="35D3B845434FBE3434F3846130EB347A64B2E3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3318E66D2387FF34F333A22D3C94A688FEC693"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3115F63EB30C51347463847B35CFFBE28EF763"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3F83E0BD3350E834E843B8813B985FC503EB53"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3648C574D3F34934C3A394EF3DB95740107D83"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32E44DD8A3151034DF738B1E375C505F44B323"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3CD83B4A7328303423A39AFE36684931983D63"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1508"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3A76453313A8703422A3816336AA84B7B3FDE3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1349"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="20218A97D22EDF24EBA2BD402C17A21D46EF02"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3360"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A898DCB94658D4453748A584FFE944C456B14"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="900"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="44DA5B41A42BE54477449E9040850944343DA4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4C67F8248414ED4403B4A0574FF5CBD5D33894"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2487"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
@@ -91,279 +533,211 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="58FAA37445CFBD545F55BEA45AACBC1A50ECF5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4551"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1270"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="410274FE6432E84491B49F7C45173A5C69D1B4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1138"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3476C46BF3B304340293BF9632168E88947C73"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="22463"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14975"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3115F63EB30C51347463847B35CFFBE28EF763"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="25D353ED0275E2249FA2BCD32763C5A5D4CC62"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="8255"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1C54A06D51378F14F9919B86157E269FEABDD1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3651"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="665AC892960B7F64D566985B60FF984365BB96"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="133ADD7A7152C514B08193DF1F9EA7A4EB19D1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1693"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3318E66D2387FF34F333A22D3C94A688FEC693"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1773"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1AC5D7FB21FF9614E26191C91E9009A2710081"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1296"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="16E251DBE1D2A0140141BC0D1C183BDB3A4021"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="109F2244F18E7B1414319747194E7A4F5F6F91"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="27623"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="35D3B845434FBE3434F3846130EB347A64B2E3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="323607CF7350DE340A8388243C57AAF0EAC1F3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+  <ax:ocxPr ax:name="Cookie" ax:value="12E5D2753176D214A981ADFF19EEDB3A7D3C31"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2170"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="873"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2C226BA75293532414E294EF2E8FFD852516E2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1AFB2B17B1E98C1439E1B6C81B311B185DD461"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="17092"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1005"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="12291BDA114693147B8181BE1BF8193A73D3E1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="18494"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BA78A1B91AA2F147F21A2CD17602A966B30E1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3413"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="953"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F44A06421273614C081A4B112069DF4C576D1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3043"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="10A250F171E9881433D1A8CB16FA083D92D1F1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4C67F8248414ED4403B4A0574FF5CBD5D33894"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2487"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1A13AFC3717F2E140861A5DF16E927EDA7AB71"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="6747"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14102"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F3989DE313A6514DA8182AF1BB477EC1D5F51"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="865306363851B484EC38B5198B66A220843138"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2805"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7E4F9637C75A92742D17B08C75D481466AC7D7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5239"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="55693D3E350B8B541DD5AE1D584BD69ED07275"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+  <ax:ocxPr ax:name="Cookie" ax:value="203B1A154240DA2435F292A420170CCA3E3062"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1905"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -376,380 +750,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="1931"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="203B1A154240DA2435F292A420170CCA3E3062"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1905"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="12E5D2753176D214A981ADFF19EEDB3A7D3C31"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2170"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="873"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="109F2244F18E7B1414319747194E7A4F5F6F91"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="27623"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="16E251DBE1D2A0140141BC0D1C183BDB3A4021"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="44DA5B41A42BE54477449E9040850944343DA4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="133ADD7A7152C514B08193DF1F9EA7A4EB19D1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1693"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="20218A97D22EDF24EBA2BD402C17A21D46EF02"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3360"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24FD265452D60024F9A280F02550102B3AD382"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1852"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23625AFFA2628524BD1294142C1CE98943D5C2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="665AC892960B7F64D566985B60FF984365BB96"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1C54A06D51378F14F9919B86157E269FEABDD1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3651"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="25D353ED0275E2249FA2BCD32763C5A5D4CC62"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="8255"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3476C46BF3B304340293BF9632168E88947C73"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="22463"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14975"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="410274FE6432E84491B49F7C45173A5C69D1B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1138"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="58FAA37445CFBD545F55BEA45AACBC1A50ECF5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4551"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1270"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4A898DCB94658D4453748A584FFE944C456B14"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="900"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1AC5D7FB21FF9614E26191C91E9009A2710081"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1296"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3A76453313A8703422A3816336AA84B7B3FDE3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1349"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3CD83B4A7328303423A39AFE36684931983D63"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1508"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="32E44DD8A3151034DF738B1E375C505F44B323"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3648C574D3F34934C3A394EF3DB95740107D83"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3F83E0BD3350E834E843B8813B985FC503EB53"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -802,13 +802,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>657226</xdr:colOff>
+          <xdr:colOff>657225</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>542926</xdr:colOff>
+          <xdr:colOff>542925</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -1827,13 +1827,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>695326</xdr:colOff>
+          <xdr:colOff>695325</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257176</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1870,7 +1870,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>619125</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>57149</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -1909,13 +1909,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>742949</xdr:colOff>
+          <xdr:colOff>742950</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>428624</xdr:colOff>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -1952,11 +1952,11 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>752475</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>66674</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>409574</xdr:colOff>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -2369,14 +2369,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -2699,7 +2699,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -2721,8 +2721,808 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId4" name="_ActiveXWrapper33">
+        <control shapeId="1047" r:id="rId4" name="_ActiveXWrapper20">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId4" name="_ActiveXWrapper20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId6" name="_ActiveXWrapper19">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId6" name="_ActiveXWrapper19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId8" name="_ActiveXWrapper17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId8" name="_ActiveXWrapper17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId10" name="_ActiveXWrapper16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId10" name="_ActiveXWrapper16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId12" name="_ActiveXWrapper32">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId12" name="_ActiveXWrapper32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId16" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId16" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId18" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId18" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId20" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId20" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId22" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId22" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId24" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId24" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId26" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId26" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId28" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId28" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId30" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId30" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId32" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId33">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId32" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId34" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId35">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId34" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId36" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId37">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId36" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId38" name="_ActiveXWrapper14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId39">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>26</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId38" name="_ActiveXWrapper14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId40" name="_ActiveXWrapper15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId41">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId40" name="_ActiveXWrapper15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId42" name="_ActiveXWrapper18">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId43">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId42" name="_ActiveXWrapper18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId44" name="_ActiveXWrapper51">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId45">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId44" name="_ActiveXWrapper51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId46" name="_ActiveXWrapper22">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId47">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId46" name="_ActiveXWrapper22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId48" name="_ActiveXWrapper23">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId49">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId48" name="_ActiveXWrapper23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId50" name="_ActiveXWrapper24">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId51">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId50" name="_ActiveXWrapper24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId52" name="_ActiveXWrapper25">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId53">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1059" r:id="rId52" name="_ActiveXWrapper25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1060" r:id="rId54" name="_ActiveXWrapper26">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId53">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1060" r:id="rId54" name="_ActiveXWrapper26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1061" r:id="rId55" name="_ActiveXWrapper27">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId56">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1061" r:id="rId55" name="_ActiveXWrapper27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId57" name="_ActiveXWrapper28">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId58">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1062" r:id="rId57" name="_ActiveXWrapper28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1063" r:id="rId59" name="_ActiveXWrapper29">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId60">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>742950</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1063" r:id="rId59" name="_ActiveXWrapper29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1064" r:id="rId61" name="_ActiveXWrapper30">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId62">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1064" r:id="rId61" name="_ActiveXWrapper30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1065" r:id="rId63" name="_ActiveXWrapper31">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId64">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1065" r:id="rId63" name="_ActiveXWrapper31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1066" r:id="rId65" name="_ActiveXWrapper73">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId66">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1066" r:id="rId65" name="_ActiveXWrapper73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1067" r:id="rId67" name="_ActiveXWrapper33">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId68">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -2741,807 +3541,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1067" r:id="rId4" name="_ActiveXWrapper33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId6" name="_ActiveXWrapper73">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1066" r:id="rId6" name="_ActiveXWrapper73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId8" name="_ActiveXWrapper31">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1065" r:id="rId8" name="_ActiveXWrapper31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId10" name="_ActiveXWrapper30">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>752475</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1064" r:id="rId10" name="_ActiveXWrapper30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId12" name="_ActiveXWrapper29">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1063" r:id="rId12" name="_ActiveXWrapper29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId14" name="_ActiveXWrapper28">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1062" r:id="rId14" name="_ActiveXWrapper28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId16" name="_ActiveXWrapper27">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1061" r:id="rId16" name="_ActiveXWrapper27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId18" name="_ActiveXWrapper26">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId18" name="_ActiveXWrapper26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId20" name="_ActiveXWrapper25">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1059" r:id="rId20" name="_ActiveXWrapper25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId21" name="_ActiveXWrapper24">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1058" r:id="rId21" name="_ActiveXWrapper24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId23" name="_ActiveXWrapper23">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId24">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId23" name="_ActiveXWrapper23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId25" name="_ActiveXWrapper22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId26">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId25" name="_ActiveXWrapper22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId27" name="_ActiveXWrapper51">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId28">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId27" name="_ActiveXWrapper51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId29" name="_ActiveXWrapper18">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId30">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId29" name="_ActiveXWrapper18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId32">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId33" name="_ActiveXWrapper14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId34">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>26</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId33" name="_ActiveXWrapper14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId35" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId36">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId35" name="_ActiveXWrapper13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId37" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId38">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId37" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId39" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId40">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId39" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId41" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId42">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId41" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId43" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId44">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId43" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId45" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId46">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId45" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId47" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId48">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId47" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId49" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId50">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId49" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId51" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId52">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId51" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId53" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId54">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId53" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId55" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId56">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId55" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId57" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId58">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId57" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId59" name="_ActiveXWrapper32">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId60">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId59" name="_ActiveXWrapper32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId61" name="_ActiveXWrapper16">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId62">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId61" name="_ActiveXWrapper16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId63" name="_ActiveXWrapper17">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId64">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId63" name="_ActiveXWrapper17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId65" name="_ActiveXWrapper19">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId66">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId65" name="_ActiveXWrapper19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId67" name="_ActiveXWrapper20">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId68">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId67" name="_ActiveXWrapper20"/>
+        <control shapeId="1067" r:id="rId67" name="_ActiveXWrapper33"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3568,8 +3568,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="2053" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId4" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId6" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId10" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId12" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId12" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
@@ -3588,132 +3713,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId6" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId10" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId10" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId12" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId12" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId14" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId14" name="_ActiveXWrapper5"/>
+        <control shapeId="2054" r:id="rId14" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3725,8 +3725,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3744,14 +3744,14 @@
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>

--- a/sqlitemodel/sqlitemodel/sqlitemodel.xlsx
+++ b/sqlitemodel/sqlitemodel/sqlitemodel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="4020" windowWidth="18300" windowHeight="9255" activeTab="2"/>
+    <workbookView xWindow="420" yWindow="4020" windowWidth="18360" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="表设计" sheetId="1" r:id="rId1"/>
@@ -76,6 +76,448 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="48F1B7E4D44859445AE4B0544474117990B964"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2858"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3115F63EB30C51347463847B35CFFBE28EF763"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3318E66D2387FF34F333A22D3C94A688FEC693"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="35D3B845434FBE3434F3846130EB347A64B2E3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="323607CF7350DE340A8388243C57AAF0EAC1F3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2C226BA75293532414E294EF2E8FFD852516E2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1AFB2B17B1E98C1439E1B6C81B311B185DD461"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="17092"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1005"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="12291BDA114693147B8181BE1BF8193A73D3E1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="18494"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BA78A1B91AA2F147F21A2CD17602A966B30E1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3413"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="953"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F44A06421273614C081A4B112069DF4C576D1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3043"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="10A250F171E9881433D1A8CB16FA083D92D1F1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4C67F8248414ED4403B4A0574FF5CBD5D33894"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2487"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1A13AFC3717F2E140861A5DF16E927EDA7AB71"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="6747"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14102"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F3989DE313A6514DA8182AF1BB477EC1D5F51"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="865306363851B484EC38B5198B66A220843138"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2805"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7E4F9637C75A92742D17B08C75D481466AC7D7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5239"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="55693D3E350B8B541DD5AE1D584BD69ED07275"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4CCE9C1324120B44BEA4869A4785E6DAB385B4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1931"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="203B1A154240DA2435F292A420170CCA3E3062"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1905"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="12E5D2753176D214A981ADFF19EEDB3A7D3C31"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2170"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="873"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="109F2244F18E7B1414319747194E7A4F5F6F91"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="27623"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="16E251DBE1D2A0140141BC0D1C183BDB3A4021"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="44DA5B41A42BE54477449E9040850944343DA4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="133ADD7A7152C514B08193DF1F9EA7A4EB19D1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1693"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="20218A97D22EDF24EBA2BD402C17A21D46EF02"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3360"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24FD265452D60024F9A280F02550102B3AD382"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1852"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
@@ -91,284 +533,199 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="665AC892960B7F64D566985B60FF984365BB96"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="55693D3E350B8B541DD5AE1D584BD69ED07275"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+  <ax:ocxPr ax:name="Cookie" ax:value="1C54A06D51378F14F9919B86157E269FEABDD1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3651"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="25D353ED0275E2249FA2BCD32763C5A5D4CC62"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="8255"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3476C46BF3B304340293BF9632168E88947C73"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="22463"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14975"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="410274FE6432E84491B49F7C45173A5C69D1B4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1138"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="58FAA37445CFBD545F55BEA45AACBC1A50ECF5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4551"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1270"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A898DCB94658D4453748A584FFE944C456B14"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="900"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1AC5D7FB21FF9614E26191C91E9009A2710081"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1296"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3A76453313A8703422A3816336AA84B7B3FDE3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1349"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3CD83B4A7328303423A39AFE36684931983D63"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1508"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32E44DD8A3151034DF738B1E375C505F44B323"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7E4F9637C75A92742D17B08C75D481466AC7D7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5239"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="865306363851B484EC38B5198B66A220843138"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2805"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F3989DE313A6514DA8182AF1BB477EC1D5F51"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1A13AFC3717F2E140861A5DF16E927EDA7AB71"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="6747"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14102"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="10A250F171E9881433D1A8CB16FA083D92D1F1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F44A06421273614C081A4B112069DF4C576D1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3043"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BA78A1B91AA2F147F21A2CD17602A966B30E1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3413"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="953"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="12291BDA114693147B8181BE1BF8193A73D3E1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="18494"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1AFB2B17B1E98C1439E1B6C81B311B185DD461"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="17092"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1005"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24FD265452D60024F9A280F02550102B3AD382"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1852"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2C226BA75293532414E294EF2E8FFD852516E2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="323607CF7350DE340A8388243C57AAF0EAC1F3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="35D3B845434FBE3434F3846130EB347A64B2E3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3318E66D2387FF34F333A22D3C94A688FEC693"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1773"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3115F63EB30C51347463847B35CFFBE28EF763"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3F83E0BD3350E834E843B8813B985FC503EB53"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3648C574D3F34934C3A394EF3DB95740107D83"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -380,12 +737,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3648C574D3F34934C3A394EF3DB95740107D83"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3F83E0BD3350E834E843B8813B985FC503EB53"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -393,363 +750,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="32E44DD8A3151034DF738B1E375C505F44B323"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3CD83B4A7328303423A39AFE36684931983D63"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1508"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3A76453313A8703422A3816336AA84B7B3FDE3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1349"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="20218A97D22EDF24EBA2BD402C17A21D46EF02"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3360"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4A898DCB94658D4453748A584FFE944C456B14"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="900"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="44DA5B41A42BE54477449E9040850944343DA4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4C67F8248414ED4403B4A0574FF5CBD5D33894"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2487"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="48F1B7E4D44859445AE4B0544474117990B964"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2858"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="58FAA37445CFBD545F55BEA45AACBC1A50ECF5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4551"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1270"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="410274FE6432E84491B49F7C45173A5C69D1B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1138"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3476C46BF3B304340293BF9632168E88947C73"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="22463"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14975"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="25D353ED0275E2249FA2BCD32763C5A5D4CC62"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="8255"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1C54A06D51378F14F9919B86157E269FEABDD1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3651"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="665AC892960B7F64D566985B60FF984365BB96"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="133ADD7A7152C514B08193DF1F9EA7A4EB19D1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1693"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1AC5D7FB21FF9614E26191C91E9009A2710081"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1296"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="16E251DBE1D2A0140141BC0D1C183BDB3A4021"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="109F2244F18E7B1414319747194E7A4F5F6F91"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="27623"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="12E5D2753176D214A981ADFF19EEDB3A7D3C31"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2170"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="873"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="203B1A154240DA2435F292A420170CCA3E3062"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1905"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4CCE9C1324120B44BEA4869A4785E6DAB385B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1931"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2699,7 +2699,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -2721,8 +2721,808 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId4" name="_ActiveXWrapper20">
+        <control shapeId="1067" r:id="rId4" name="_ActiveXWrapper33">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1067" r:id="rId4" name="_ActiveXWrapper33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1066" r:id="rId6" name="_ActiveXWrapper73">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1066" r:id="rId6" name="_ActiveXWrapper73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1065" r:id="rId8" name="_ActiveXWrapper31">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1065" r:id="rId8" name="_ActiveXWrapper31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1064" r:id="rId10" name="_ActiveXWrapper30">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1064" r:id="rId10" name="_ActiveXWrapper30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1063" r:id="rId12" name="_ActiveXWrapper29">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>742950</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1063" r:id="rId12" name="_ActiveXWrapper29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId14" name="_ActiveXWrapper28">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1062" r:id="rId14" name="_ActiveXWrapper28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1061" r:id="rId16" name="_ActiveXWrapper27">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1061" r:id="rId16" name="_ActiveXWrapper27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1060" r:id="rId18" name="_ActiveXWrapper26">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1060" r:id="rId18" name="_ActiveXWrapper26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId20" name="_ActiveXWrapper25">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1059" r:id="rId20" name="_ActiveXWrapper25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId21" name="_ActiveXWrapper24">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId21" name="_ActiveXWrapper24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId23" name="_ActiveXWrapper23">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId24">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId23" name="_ActiveXWrapper23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId25" name="_ActiveXWrapper22">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId26">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId25" name="_ActiveXWrapper22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId27" name="_ActiveXWrapper51">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId28">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId27" name="_ActiveXWrapper51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId29" name="_ActiveXWrapper18">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId30">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId29" name="_ActiveXWrapper18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId32">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId33" name="_ActiveXWrapper14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId34">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>26</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId33" name="_ActiveXWrapper14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId35" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId36">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId35" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId37" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId38">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId37" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId39" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId40">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId39" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId41" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId42">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId41" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId43" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId44">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId43" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId45" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId46">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId45" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId47" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId48">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId47" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId49" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId50">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId49" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId51" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId52">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId51" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId53" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId54">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId53" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId55" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId56">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId55" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId57" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId58">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId57" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId59" name="_ActiveXWrapper32">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId60">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId59" name="_ActiveXWrapper32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId61" name="_ActiveXWrapper16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId62">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId61" name="_ActiveXWrapper16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId63" name="_ActiveXWrapper17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId64">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId63" name="_ActiveXWrapper17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId65" name="_ActiveXWrapper19">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId66">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId65" name="_ActiveXWrapper19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId67" name="_ActiveXWrapper20">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId68">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -2741,807 +3541,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId4" name="_ActiveXWrapper20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId6" name="_ActiveXWrapper19">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId6" name="_ActiveXWrapper19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId8" name="_ActiveXWrapper17">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId8" name="_ActiveXWrapper17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId10" name="_ActiveXWrapper16">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId10" name="_ActiveXWrapper16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId12" name="_ActiveXWrapper32">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId12" name="_ActiveXWrapper32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId14" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId16" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId16" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId18" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId18" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId20" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId20" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId22" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId22" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId24" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId24" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId26" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId26" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId28" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId28" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId30" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId30" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId32" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId33">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId32" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId34" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId35">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId34" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId36" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId37">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId36" name="_ActiveXWrapper13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId38" name="_ActiveXWrapper14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId39">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>26</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId38" name="_ActiveXWrapper14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId40" name="_ActiveXWrapper15">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId41">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId40" name="_ActiveXWrapper15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId42" name="_ActiveXWrapper18">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId43">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId42" name="_ActiveXWrapper18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId44" name="_ActiveXWrapper51">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId45">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId44" name="_ActiveXWrapper51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId46" name="_ActiveXWrapper22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId47">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId46" name="_ActiveXWrapper22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId48" name="_ActiveXWrapper23">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId49">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId48" name="_ActiveXWrapper23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId50" name="_ActiveXWrapper24">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId51">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1058" r:id="rId50" name="_ActiveXWrapper24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId52" name="_ActiveXWrapper25">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId53">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1059" r:id="rId52" name="_ActiveXWrapper25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId54" name="_ActiveXWrapper26">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId53">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId54" name="_ActiveXWrapper26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId55" name="_ActiveXWrapper27">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId56">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1061" r:id="rId55" name="_ActiveXWrapper27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId57" name="_ActiveXWrapper28">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId58">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1062" r:id="rId57" name="_ActiveXWrapper28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId59" name="_ActiveXWrapper29">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId60">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1063" r:id="rId59" name="_ActiveXWrapper29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId61" name="_ActiveXWrapper30">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId62">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>752475</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1064" r:id="rId61" name="_ActiveXWrapper30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId63" name="_ActiveXWrapper31">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId64">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1065" r:id="rId63" name="_ActiveXWrapper31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId65" name="_ActiveXWrapper73">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId66">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1066" r:id="rId65" name="_ActiveXWrapper73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId67" name="_ActiveXWrapper33">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId68">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1067" r:id="rId67" name="_ActiveXWrapper33"/>
+        <control shapeId="1047" r:id="rId67" name="_ActiveXWrapper20"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3568,8 +3568,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="2054" r:id="rId4" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId6" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId10" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId10" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId12" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId12" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId14" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -3588,132 +3713,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId4" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId6" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId10" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId12" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId12" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId14" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId14" name="_ActiveXWrapper6"/>
+        <control shapeId="2053" r:id="rId14" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3725,7 +3725,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>

--- a/sqlitemodel/sqlitemodel/sqlitemodel.xlsx
+++ b/sqlitemodel/sqlitemodel/sqlitemodel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="4020" windowWidth="18360" windowHeight="9255"/>
+    <workbookView xWindow="420" yWindow="3690" windowWidth="18360" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="表设计" sheetId="1" r:id="rId1"/>
@@ -79,6 +79,465 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="426D876544EF14448B4497B94CEAE6655767F4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="12938"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="873"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4CCE9C1324120B44BEA4869A4785E6DAB385B4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1931"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="55693D3E350B8B541DD5AE1D584BD69ED07275"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7E4F9637C75A92742D17B08C75D481466AC7D7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5239"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="865306363851B484EC38B5198B66A220843138"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2805"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F3989DE313A6514DA8182AF1BB477EC1D5F51"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1A13AFC3717F2E140861A5DF16E927EDA7AB71"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="6747"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14102"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="10A250F171E9881433D1A8CB16FA083D92D1F1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F44A06421273614C081A4B112069DF4C576D1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3043"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BA78A1B91AA2F147F21A2CD17602A966B30E1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3413"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="953"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="12291BDA114693147B8181BE1BF8193A73D3E1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="18494"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23625AFFA2628524BD1294142C1CE98943D5C2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1AFB2B17B1E98C1439E1B6C81B311B185DD461"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="17092"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1005"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2C226BA75293532414E294EF2E8FFD852516E2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="323607CF7350DE340A8388243C57AAF0EAC1F3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="35D3B845434FBE3434F3846130EB347A64B2E3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3318E66D2387FF34F333A22D3C94A688FEC693"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3115F63EB30C51347463847B35CFFBE28EF763"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3F83E0BD3350E834E843B8813B985FC503EB53"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3648C574D3F34934C3A394EF3DB95740107D83"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32E44DD8A3151034DF738B1E375C505F44B323"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3CD83B4A7328303423A39AFE36684931983D63"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1508"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24FD265452D60024F9A280F02550102B3AD382"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1852"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3A76453313A8703422A3816336AA84B7B3FDE3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1349"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A898DCB94658D4453748A584FFE944C456B14"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="900"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="44DA5B41A42BE54477449E9040850944343DA4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4C67F8248414ED4403B4A0574FF5CBD5D33894"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2487"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="48F1B7E4D44859445AE4B0544474117990B964"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -91,296 +550,211 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="58FAA37445CFBD545F55BEA45AACBC1A50ECF5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4551"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1270"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="410274FE6432E84491B49F7C45173A5C69D1B4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1138"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3476C46BF3B304340293BF9632168E88947C73"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="22463"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14975"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3115F63EB30C51347463847B35CFFBE28EF763"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="25D353ED0275E2249FA2BCD32763C5A5D4CC62"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="8255"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1C54A06D51378F14F9919B86157E269FEABDD1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3651"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="20218A97D22EDF24EBA2BD402C17A21D46EF02"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3360"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="665AC892960B7F64D566985B60FF984365BB96"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3318E66D2387FF34F333A22D3C94A688FEC693"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1773"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1AC5D7FB21FF9614E26191C91E9009A2710081"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1296"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="133ADD7A7152C514B08193DF1F9EA7A4EB19D1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1693"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="16E251DBE1D2A0140141BC0D1C183BDB3A4021"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="109F2244F18E7B1414319747194E7A4F5F6F91"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="27623"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="35D3B845434FBE3434F3846130EB347A64B2E3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="323607CF7350DE340A8388243C57AAF0EAC1F3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2C226BA75293532414E294EF2E8FFD852516E2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1AFB2B17B1E98C1439E1B6C81B311B185DD461"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="17092"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1005"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="12291BDA114693147B8181BE1BF8193A73D3E1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="18494"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BA78A1B91AA2F147F21A2CD17602A966B30E1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3413"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="953"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F44A06421273614C081A4B112069DF4C576D1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3043"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="10A250F171E9881433D1A8CB16FA083D92D1F1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4C67F8248414ED4403B4A0574FF5CBD5D33894"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2487"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1A13AFC3717F2E140861A5DF16E927EDA7AB71"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="6747"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14102"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F3989DE313A6514DA8182AF1BB477EC1D5F51"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="865306363851B484EC38B5198B66A220843138"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2805"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7E4F9637C75A92742D17B08C75D481466AC7D7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5239"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="55693D3E350B8B541DD5AE1D584BD69ED07275"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4CCE9C1324120B44BEA4869A4785E6DAB385B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1931"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+  <ax:ocxPr ax:name="Cookie" ax:value="12E5D2753176D214A981ADFF19EEDB3A7D3C31"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2170"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="873"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -393,363 +767,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="1905"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="12E5D2753176D214A981ADFF19EEDB3A7D3C31"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2170"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="873"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="109F2244F18E7B1414319747194E7A4F5F6F91"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="27623"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="16E251DBE1D2A0140141BC0D1C183BDB3A4021"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="44DA5B41A42BE54477449E9040850944343DA4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="133ADD7A7152C514B08193DF1F9EA7A4EB19D1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1693"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="20218A97D22EDF24EBA2BD402C17A21D46EF02"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3360"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24FD265452D60024F9A280F02550102B3AD382"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1852"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23625AFFA2628524BD1294142C1CE98943D5C2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="665AC892960B7F64D566985B60FF984365BB96"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1C54A06D51378F14F9919B86157E269FEABDD1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3651"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="25D353ED0275E2249FA2BCD32763C5A5D4CC62"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="8255"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3476C46BF3B304340293BF9632168E88947C73"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="22463"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14975"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="410274FE6432E84491B49F7C45173A5C69D1B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1138"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="58FAA37445CFBD545F55BEA45AACBC1A50ECF5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4551"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1270"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4A898DCB94658D4453748A584FFE944C456B14"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="900"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1AC5D7FB21FF9614E26191C91E9009A2710081"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1296"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3A76453313A8703422A3816336AA84B7B3FDE3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1349"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3CD83B4A7328303423A39AFE36684931983D63"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1508"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="32E44DD8A3151034DF738B1E375C505F44B323"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3648C574D3F34934C3A394EF3DB95740107D83"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3F83E0BD3350E834E843B8813B985FC503EB53"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2089,6 +2106,47 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>552449</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>409574</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1068" name="_ActiveXWrapper34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2699,8 +2757,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2721,8 +2779,833 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId4" name="_ActiveXWrapper33">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="1068" r:id="rId4" name="_ActiveXWrapper34">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1068" r:id="rId4" name="_ActiveXWrapper34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId6" name="_ActiveXWrapper20">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId6" name="_ActiveXWrapper20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId8" name="_ActiveXWrapper19">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId8" name="_ActiveXWrapper19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId10" name="_ActiveXWrapper17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId10" name="_ActiveXWrapper17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId12" name="_ActiveXWrapper16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId12" name="_ActiveXWrapper16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId14" name="_ActiveXWrapper32">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId14" name="_ActiveXWrapper32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId16" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId16" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId18" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId18" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId20" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId20" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId22" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId22" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId26" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId26" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId28" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId28" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId30" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId30" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId32" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId33">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId32" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId34" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId35">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId34" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId36" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId37">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId36" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId38" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId39">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId38" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId40" name="_ActiveXWrapper14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId41">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>26</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId40" name="_ActiveXWrapper14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId42" name="_ActiveXWrapper15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId43">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId42" name="_ActiveXWrapper15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId44" name="_ActiveXWrapper18">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId45">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId44" name="_ActiveXWrapper18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId46" name="_ActiveXWrapper51">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId47">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId46" name="_ActiveXWrapper51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId48" name="_ActiveXWrapper22">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId49">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId48" name="_ActiveXWrapper22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId50" name="_ActiveXWrapper23">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId51">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId50" name="_ActiveXWrapper23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId52" name="_ActiveXWrapper24">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId53">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId52" name="_ActiveXWrapper24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId54" name="_ActiveXWrapper25">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId55">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1059" r:id="rId54" name="_ActiveXWrapper25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1060" r:id="rId56" name="_ActiveXWrapper26">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId55">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1060" r:id="rId56" name="_ActiveXWrapper26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1061" r:id="rId57" name="_ActiveXWrapper27">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId58">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1061" r:id="rId57" name="_ActiveXWrapper27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId59" name="_ActiveXWrapper28">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId60">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1062" r:id="rId59" name="_ActiveXWrapper28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1063" r:id="rId61" name="_ActiveXWrapper29">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId62">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>742950</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1063" r:id="rId61" name="_ActiveXWrapper29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1064" r:id="rId63" name="_ActiveXWrapper30">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId64">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1064" r:id="rId63" name="_ActiveXWrapper30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1065" r:id="rId65" name="_ActiveXWrapper31">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId66">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1065" r:id="rId65" name="_ActiveXWrapper31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1066" r:id="rId67" name="_ActiveXWrapper73">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId68">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1066" r:id="rId67" name="_ActiveXWrapper73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1067" r:id="rId69" name="_ActiveXWrapper33">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId70">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -2741,807 +3624,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1067" r:id="rId4" name="_ActiveXWrapper33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId6" name="_ActiveXWrapper73">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1066" r:id="rId6" name="_ActiveXWrapper73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId8" name="_ActiveXWrapper31">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1065" r:id="rId8" name="_ActiveXWrapper31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId10" name="_ActiveXWrapper30">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>752475</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1064" r:id="rId10" name="_ActiveXWrapper30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId12" name="_ActiveXWrapper29">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1063" r:id="rId12" name="_ActiveXWrapper29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId14" name="_ActiveXWrapper28">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1062" r:id="rId14" name="_ActiveXWrapper28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId16" name="_ActiveXWrapper27">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1061" r:id="rId16" name="_ActiveXWrapper27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId18" name="_ActiveXWrapper26">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId18" name="_ActiveXWrapper26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId20" name="_ActiveXWrapper25">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1059" r:id="rId20" name="_ActiveXWrapper25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId21" name="_ActiveXWrapper24">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1058" r:id="rId21" name="_ActiveXWrapper24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId23" name="_ActiveXWrapper23">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId24">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId23" name="_ActiveXWrapper23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId25" name="_ActiveXWrapper22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId26">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId25" name="_ActiveXWrapper22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId27" name="_ActiveXWrapper51">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId28">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId27" name="_ActiveXWrapper51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId29" name="_ActiveXWrapper18">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId30">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId29" name="_ActiveXWrapper18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId32">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId33" name="_ActiveXWrapper14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId34">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>26</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId33" name="_ActiveXWrapper14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId35" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId36">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId35" name="_ActiveXWrapper13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId37" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId38">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId37" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId39" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId40">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId39" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId41" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId42">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId41" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId43" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId44">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId43" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId45" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId46">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId45" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId47" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId48">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId47" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId49" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId50">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId49" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId51" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId52">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId51" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId53" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId54">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId53" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId55" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId56">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId55" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId57" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId58">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId57" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId59" name="_ActiveXWrapper32">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId60">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId59" name="_ActiveXWrapper32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId61" name="_ActiveXWrapper16">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId62">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId61" name="_ActiveXWrapper16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId63" name="_ActiveXWrapper17">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId64">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId63" name="_ActiveXWrapper17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId65" name="_ActiveXWrapper19">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId66">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId65" name="_ActiveXWrapper19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId67" name="_ActiveXWrapper20">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId68">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId67" name="_ActiveXWrapper20"/>
+        <control shapeId="1067" r:id="rId69" name="_ActiveXWrapper33"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3568,8 +3651,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="2053" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId4" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId6" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId10" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId12" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId12" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
@@ -3588,132 +3796,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId6" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId10" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId10" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId12" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId12" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId14" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId14" name="_ActiveXWrapper5"/>
+        <control shapeId="2054" r:id="rId14" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/sqlitemodel/sqlitemodel/sqlitemodel.xlsx
+++ b/sqlitemodel/sqlitemodel/sqlitemodel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="3690" windowWidth="18360" windowHeight="9255"/>
+    <workbookView xWindow="420" yWindow="3690" windowWidth="13095" windowHeight="9255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表设计" sheetId="1" r:id="rId1"/>
@@ -79,6 +79,465 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="48F1B7E4D44859445AE4B0544474117990B964"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2858"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3115F63EB30C51347463847B35CFFBE28EF763"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3318E66D2387FF34F333A22D3C94A688FEC693"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="35D3B845434FBE3434F3846130EB347A64B2E3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="323607CF7350DE340A8388243C57AAF0EAC1F3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2C226BA75293532414E294EF2E8FFD852516E2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1AFB2B17B1E98C1439E1B6C81B311B185DD461"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="17092"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1005"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="12291BDA114693147B8181BE1BF8193A73D3E1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="18494"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BA78A1B91AA2F147F21A2CD17602A966B30E1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3413"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="953"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F44A06421273614C081A4B112069DF4C576D1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3043"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="10A250F171E9881433D1A8CB16FA083D92D1F1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4C67F8248414ED4403B4A0574FF5CBD5D33894"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2487"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1A13AFC3717F2E140861A5DF16E927EDA7AB71"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="6747"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14102"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F3989DE313A6514DA8182AF1BB477EC1D5F51"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="865306363851B484EC38B5198B66A220843138"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2805"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7E4F9637C75A92742D17B08C75D481466AC7D7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5239"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="55693D3E350B8B541DD5AE1D584BD69ED07275"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4CCE9C1324120B44BEA4869A4785E6DAB385B4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1931"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="203B1A154240DA2435F292A420170CCA3E3062"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1905"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="12E5D2753176D214A981ADFF19EEDB3A7D3C31"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2170"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="873"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="109F2244F18E7B1414319747194E7A4F5F6F91"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="27623"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="16E251DBE1D2A0140141BC0D1C183BDB3A4021"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="44DA5B41A42BE54477449E9040850944343DA4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="133ADD7A7152C514B08193DF1F9EA7A4EB19D1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1693"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="20218A97D22EDF24EBA2BD402C17A21D46EF02"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3360"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24FD265452D60024F9A280F02550102B3AD382"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1852"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23625AFFA2628524BD1294142C1CE98943D5C2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="426D876544EF14448B4497B94CEAE6655767F4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -91,301 +550,216 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7CDBF2A1F78D7C7423C7AEE8769C3C4622A1D7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4286"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1111"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="665AC892960B7F64D566985B60FF984365BB96"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4CCE9C1324120B44BEA4869A4785E6DAB385B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1931"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+  <ax:ocxPr ax:name="Cookie" ax:value="1C54A06D51378F14F9919B86157E269FEABDD1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3651"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="25D353ED0275E2249FA2BCD32763C5A5D4CC62"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="8255"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3476C46BF3B304340293BF9632168E88947C73"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="22463"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="14975"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="55693D3E350B8B541DD5AE1D584BD69ED07275"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2064"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="609"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A898DCB94658D4453748A584FFE944C456B14"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="900"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="410274FE6432E84491B49F7C45173A5C69D1B4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1138"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="58FAA37445CFBD545F55BEA45AACBC1A50ECF5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4551"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1270"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1AC5D7FB21FF9614E26191C91E9009A2710081"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1296"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3A76453313A8703422A3816336AA84B7B3FDE3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1349"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3CD83B4A7328303423A39AFE36684931983D63"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1508"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32E44DD8A3151034DF738B1E375C505F44B323"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7E4F9637C75A92742D17B08C75D481466AC7D7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5239"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="865306363851B484EC38B5198B66A220843138"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2805"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="661"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F3989DE313A6514DA8182AF1BB477EC1D5F51"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4921"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1A13AFC3717F2E140861A5DF16E927EDA7AB71"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="6747"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14102"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="10A250F171E9881433D1A8CB16FA083D92D1F1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F44A06421273614C081A4B112069DF4C576D1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3043"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BA78A1B91AA2F147F21A2CD17602A966B30E1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3413"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="953"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="12291BDA114693147B8181BE1BF8193A73D3E1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="18494"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23625AFFA2628524BD1294142C1CE98943D5C2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3254"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1AFB2B17B1E98C1439E1B6C81B311B185DD461"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="17092"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1005"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2C226BA75293532414E294EF2E8FFD852516E2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2355"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="847"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="323607CF7350DE340A8388243C57AAF0EAC1F3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3863"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="35D3B845434FBE3434F3846130EB347A64B2E3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1799"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3318E66D2387FF34F333A22D3C94A688FEC693"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1773"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3115F63EB30C51347463847B35CFFBE28EF763"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3F83E0BD3350E834E843B8813B985FC503EB53"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3648C574D3F34934C3A394EF3DB95740107D83"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -397,12 +771,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3648C574D3F34934C3A394EF3DB95740107D83"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3F83E0BD3350E834E843B8813B985FC503EB53"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -410,363 +784,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="2752"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="32E44DD8A3151034DF738B1E375C505F44B323"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="556"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3CD83B4A7328303423A39AFE36684931983D63"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1508"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="688"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24FD265452D60024F9A280F02550102B3AD382"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1852"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3A76453313A8703422A3816336AA84B7B3FDE3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1349"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4A898DCB94658D4453748A584FFE944C456B14"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1270"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="900"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="44DA5B41A42BE54477449E9040850944343DA4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4C67F8248414ED4403B4A0574FF5CBD5D33894"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2487"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="48F1B7E4D44859445AE4B0544474117990B964"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2858"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="58FAA37445CFBD545F55BEA45AACBC1A50ECF5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4551"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1270"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="410274FE6432E84491B49F7C45173A5C69D1B4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1138"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3476C46BF3B304340293BF9632168E88947C73"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="22463"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14975"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="25D353ED0275E2249FA2BCD32763C5A5D4CC62"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="8255"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="767"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1C54A06D51378F14F9919B86157E269FEABDD1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3651"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1164"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.TextBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="20218A97D22EDF24EBA2BD402C17A21D46EF02"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3360"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="665AC892960B7F64D566985B60FF984365BB96"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1AC5D7FB21FF9614E26191C91E9009A2710081"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2223"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1296"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Label"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="133ADD7A7152C514B08193DF1F9EA7A4EB19D1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1693"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="16E251DBE1D2A0140141BC0D1C183BDB3A4021"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5080"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.DataGridView"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="109F2244F18E7B1414319747194E7A4F5F6F91"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="27623"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="14049"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="12E5D2753176D214A981ADFF19EEDB3A7D3C31"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="2170"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="873"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="203B1A154240DA2435F292A420170CCA3E3062"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1905"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="635"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2131,13 +2148,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>552449</xdr:colOff>
+          <xdr:colOff>552450</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>409574</xdr:colOff>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -2398,6 +2415,47 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2054"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2055" name="_ActiveXWrapper7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2055"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2757,7 +2815,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -2779,8 +2837,833 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId4" name="_ActiveXWrapper34">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="1067" r:id="rId4" name="_ActiveXWrapper33">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1067" r:id="rId4" name="_ActiveXWrapper33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1066" r:id="rId6" name="_ActiveXWrapper73">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1066" r:id="rId6" name="_ActiveXWrapper73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1065" r:id="rId8" name="_ActiveXWrapper31">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1065" r:id="rId8" name="_ActiveXWrapper31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1064" r:id="rId10" name="_ActiveXWrapper30">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>752475</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1064" r:id="rId10" name="_ActiveXWrapper30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1063" r:id="rId12" name="_ActiveXWrapper29">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>742950</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1063" r:id="rId12" name="_ActiveXWrapper29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId14" name="_ActiveXWrapper28">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1062" r:id="rId14" name="_ActiveXWrapper28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1061" r:id="rId16" name="_ActiveXWrapper27">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1061" r:id="rId16" name="_ActiveXWrapper27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1060" r:id="rId18" name="_ActiveXWrapper26">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1060" r:id="rId18" name="_ActiveXWrapper26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId20" name="_ActiveXWrapper25">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1059" r:id="rId20" name="_ActiveXWrapper25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId21" name="_ActiveXWrapper24">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId21" name="_ActiveXWrapper24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId23" name="_ActiveXWrapper23">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId24">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId23" name="_ActiveXWrapper23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId25" name="_ActiveXWrapper22">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId26">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>352425</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId25" name="_ActiveXWrapper22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId27" name="_ActiveXWrapper51">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId28">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId27" name="_ActiveXWrapper51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId29" name="_ActiveXWrapper18">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId30">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId29" name="_ActiveXWrapper18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId32">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId31" name="_ActiveXWrapper15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId33" name="_ActiveXWrapper14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId34">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>26</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId33" name="_ActiveXWrapper14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId35" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId36">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId35" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId37" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId38">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId37" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId39" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId40">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId39" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId41" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId42">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId41" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId43" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId44">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId43" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId45" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId46">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId45" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId47" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId48">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId47" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId49" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId50">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId49" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId51" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId52">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId51" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId53" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId54">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId53" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId55" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId56">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId55" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId57" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId58">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId57" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId59" name="_ActiveXWrapper32">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId60">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId59" name="_ActiveXWrapper32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId61" name="_ActiveXWrapper16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId62">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId61" name="_ActiveXWrapper16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId63" name="_ActiveXWrapper17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId64">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId63" name="_ActiveXWrapper17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId65" name="_ActiveXWrapper19">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId66">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId65" name="_ActiveXWrapper19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId67" name="_ActiveXWrapper20">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId68">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId67" name="_ActiveXWrapper20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1068" r:id="rId69" name="_ActiveXWrapper34">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId70">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -2799,832 +3682,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1068" r:id="rId4" name="_ActiveXWrapper34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId6" name="_ActiveXWrapper20">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId6" name="_ActiveXWrapper20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId8" name="_ActiveXWrapper19">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId8" name="_ActiveXWrapper19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId10" name="_ActiveXWrapper17">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId10" name="_ActiveXWrapper17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId12" name="_ActiveXWrapper16">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId12" name="_ActiveXWrapper16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId14" name="_ActiveXWrapper32">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId14" name="_ActiveXWrapper32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId16" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId16" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId18" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId18" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId20" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId20" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId22" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId22" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId24" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId26" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId26" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId28" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId28" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId30" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId30" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId32" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId33">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId32" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId34" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId35">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId34" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId36" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId37">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId36" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId38" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId39">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId38" name="_ActiveXWrapper13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId40" name="_ActiveXWrapper14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId41">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>26</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId40" name="_ActiveXWrapper14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId42" name="_ActiveXWrapper15">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId43">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId42" name="_ActiveXWrapper15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId44" name="_ActiveXWrapper18">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId45">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId44" name="_ActiveXWrapper18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId46" name="_ActiveXWrapper51">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId47">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId46" name="_ActiveXWrapper51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId48" name="_ActiveXWrapper22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId49">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId48" name="_ActiveXWrapper22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId50" name="_ActiveXWrapper23">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId51">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId50" name="_ActiveXWrapper23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId52" name="_ActiveXWrapper24">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId53">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1058" r:id="rId52" name="_ActiveXWrapper24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId54" name="_ActiveXWrapper25">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId55">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1059" r:id="rId54" name="_ActiveXWrapper25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId56" name="_ActiveXWrapper26">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId55">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId56" name="_ActiveXWrapper26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId57" name="_ActiveXWrapper27">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId58">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1061" r:id="rId57" name="_ActiveXWrapper27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId59" name="_ActiveXWrapper28">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId60">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1062" r:id="rId59" name="_ActiveXWrapper28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId61" name="_ActiveXWrapper29">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId62">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1063" r:id="rId61" name="_ActiveXWrapper29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId63" name="_ActiveXWrapper30">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId64">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>752475</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1064" r:id="rId63" name="_ActiveXWrapper30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId65" name="_ActiveXWrapper31">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId66">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1065" r:id="rId65" name="_ActiveXWrapper31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId67" name="_ActiveXWrapper73">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId68">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1066" r:id="rId67" name="_ActiveXWrapper73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId69" name="_ActiveXWrapper33">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId70">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1067" r:id="rId69" name="_ActiveXWrapper33"/>
+        <control shapeId="1068" r:id="rId69" name="_ActiveXWrapper34"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3636,7 +3694,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -3651,8 +3709,158 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="2055" r:id="rId4" name="_ActiveXWrapper7">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId4" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId6" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId6" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId8" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId8" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId10" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId12" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId12" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId14" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId14" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId16" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -3671,132 +3879,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId4" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId6" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId10" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId12" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId12" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId14" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId14" name="_ActiveXWrapper6"/>
+        <control shapeId="2053" r:id="rId16" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
